--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,75 +1505,67 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1591,21 +1575,13 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1613,23 +1589,31 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1663,21 +1647,29 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1687,7 +1679,7 @@
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1721,24 +1713,24 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -1748,8 +1740,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1757,63 +1757,47 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1831,21 +1815,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1855,7 +1847,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1889,19 +1881,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1911,7 +1903,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1945,19 +1937,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -2001,19 +1993,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2057,19 +2049,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,7 +2071,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2103,29 +2095,21 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2159,12 +2143,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr"/>
@@ -2173,12 +2157,12 @@
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -2188,64 +2172,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2253,23 +2229,31 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H33" s="2" t="inlineStr"/>
       <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2303,21 +2287,29 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2327,7 +2319,7 @@
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2361,24 +2353,24 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2388,72 +2380,64 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2471,21 +2455,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2495,7 +2487,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2529,19 +2521,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2551,7 +2543,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2585,19 +2577,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2641,19 +2633,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2697,19 +2689,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2719,53 +2711,45 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2775,34 +2759,34 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2813,12 +2797,12 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -2828,16 +2812,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2845,12 +2821,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2861,17 +2837,17 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2885,12 +2861,12 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2901,7 +2877,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2916,21 +2892,29 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2941,7 +2925,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2951,21 +2935,13 @@
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2973,12 +2949,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2989,12 +2965,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -3013,12 +2989,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3029,12 +3005,12 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N48" s="2" t="inlineStr">
@@ -3044,32 +3020,48 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of your proposal</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>desc-your-proposal</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Written description of the proposed development including any additional relevant details.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>related-application</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+          <t>Related application</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3084,16 +3076,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Description of your proposal</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>desc-your-proposal</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
           <t>Written description of the proposed development including any additional relevant details.</t>
@@ -3111,12 +3095,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3125,7 +3109,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3159,12 +3143,12 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3183,7 +3167,7 @@
       </c>
       <c r="N51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3197,31 +3181,23 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>related-application</t>
+          <t>original-application-type</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Original application type</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Type of original planning application</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
@@ -3245,12 +3221,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>original-application-type</t>
+          <t>is-householder-development</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Original application type</t>
+          <t>Is householder development</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3261,12 +3237,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Type of original planning application</t>
+          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3276,21 +3252,29 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Eligibility</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>eligibility</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Written description of the proposed development including any additional relevant details.</t>
+          <t>Whether certain eligibility criteria has been met and the right people notified</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>is-householder-development</t>
+          <t>applicant-land-interest</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Is householder development</t>
+          <t>Applicant land interest</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3301,7 +3285,7 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
+          <t>Does the applicant have an interest in the land</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
@@ -3311,21 +3295,13 @@
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Eligibility</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>eligibility</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Whether certain eligibility criteria has been met and the right people notified</t>
@@ -3333,12 +3309,12 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>applicant-land-interest</t>
+          <t>ownership-notification</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Applicant land interest</t>
+          <t>Ownership notification</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3349,17 +3325,17 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant have an interest in the land</t>
+          <t>If not the sole owner, has notification been given under Article 10</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3373,28 +3349,44 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>ownership-notification</t>
+          <t>notified-persons</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Ownership notification</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
+          <t>Notified persons[]</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>If not the sole owner, has notification been given under Article 10</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N56" s="2" t="inlineStr">
@@ -3433,19 +3425,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3455,7 +3447,7 @@
       </c>
       <c r="N57" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3489,19 +3481,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3545,19 +3537,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3601,19 +3593,19 @@
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3623,7 +3615,7 @@
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3647,34 +3639,26 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
@@ -3684,64 +3668,56 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Non-material amendment details</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>nm-amendment-details</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Whether certain eligibility criteria has been met and the right people notified</t>
+          <t>Details of changes being requested to plans after permission has already been granted.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>notified-persons</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Notified persons[]</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of the non-material amendments the applicant seeks to make</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Non-material amendment details</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>nm-amendment-details</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>Details of changes being requested to plans after permission has already been granted.</t>
@@ -3749,12 +3725,12 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>is-substituting-document</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Substituting document</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -3765,12 +3741,12 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Description of the non-material amendments the applicant seeks to make</t>
+          <t>True or False indicating whether the amendment involves substituting documents</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3789,28 +3765,36 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>is-substituting-document</t>
+          <t>replacement-documents</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Substituting document</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
+          <t>Replacement documents[]</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>old-document</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Old document</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the amendment involves substituting documents</t>
+          <t>Reference of the old document being replaced in the amendment</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3839,12 +3823,12 @@
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>old-document</t>
+          <t>new-document</t>
         </is>
       </c>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Old document</t>
+          <t>New document</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
@@ -3853,7 +3837,7 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old document being replaced in the amendment</t>
+          <t>Reference for the new document replacing the old document in the amendment</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3877,31 +3861,23 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>replacement-documents</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Replacement documents[]</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>new-document</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>New document</t>
-        </is>
-      </c>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new document replacing the old document in the amendment</t>
+          <t>Reason why applicant wants to make the amendment</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
@@ -3916,21 +3892,29 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Details of changes being requested to plans after permission has already been granted.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3941,12 +3925,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Reason why applicant wants to make the amendment</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3956,16 +3940,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3973,12 +3949,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3989,17 +3965,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4013,12 +3989,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4029,7 +4005,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4053,12 +4029,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4069,7 +4045,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4093,12 +4069,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4109,7 +4085,7 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
@@ -4124,37 +4100,53 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H72" s="2" t="inlineStr"/>
       <c r="I72" s="2" t="inlineStr"/>
       <c r="J72" s="2" t="inlineStr"/>
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4164,16 +4156,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4191,12 +4175,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4205,12 +4189,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4239,12 +4223,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4253,7 +4237,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4287,12 +4271,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4301,12 +4285,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4335,12 +4319,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4349,7 +4333,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4383,12 +4367,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4397,7 +4381,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4431,12 +4415,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4445,7 +4429,7 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
@@ -4479,12 +4463,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4493,12 +4477,12 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4527,12 +4511,12 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr"/>
@@ -4541,7 +4525,7 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4556,64 +4540,56 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G81" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4621,12 +4597,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4637,12 +4613,12 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
@@ -4661,12 +4637,12 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr"/>
@@ -4677,17 +4653,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4701,23 +4677,31 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr"/>
-      <c r="G84" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H84" s="2" t="inlineStr"/>
       <c r="I84" s="2" t="inlineStr"/>
       <c r="J84" s="2" t="inlineStr"/>
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4727,7 +4711,7 @@
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4751,12 +4735,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4765,7 +4749,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4799,12 +4783,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4813,7 +4797,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4822,54 +4806,6 @@
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
-      <c r="C87" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H87" s="2" t="inlineStr"/>
-      <c r="I87" s="2" t="inlineStr"/>
-      <c r="J87" s="2" t="inlineStr"/>
-      <c r="K87" s="2" t="inlineStr"/>
-      <c r="L87" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N87" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4877,34 +4813,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B55:B62"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A55:A62"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A73:A81"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,75 +1441,67 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1527,21 +1511,13 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1549,23 +1525,31 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1599,21 +1583,29 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1623,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1657,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1684,8 +1676,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,63 +1693,47 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1767,21 +1751,29 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1791,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1825,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1881,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1937,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1993,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2015,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2039,29 +2031,21 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr"/>
+      <c r="I29" s="2" t="inlineStr"/>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2095,12 +2079,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2109,12 +2093,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2124,64 +2108,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2189,23 +2165,31 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2239,21 +2223,29 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2297,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2324,72 +2316,64 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2407,21 +2391,29 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2431,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2465,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2521,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2633,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2655,53 +2647,45 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>checklist</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2711,34 +2695,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2749,12 +2733,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2764,16 +2748,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>conflict-of-interest</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2781,12 +2757,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2797,17 +2773,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2797,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2837,7 +2813,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2852,21 +2828,29 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2877,7 +2861,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2887,21 +2871,13 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2909,12 +2885,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2925,12 +2901,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2949,12 +2925,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2965,12 +2941,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2980,32 +2956,48 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Description of your proposal</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>desc-your-proposal</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Written description of the proposed development including any additional relevant details.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>related-application</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+          <t>Related application</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3020,16 +3012,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Description of your proposal</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>desc-your-proposal</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Written description of the proposed development including any additional relevant details.</t>
@@ -3047,12 +3031,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3061,7 +3045,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3095,12 +3079,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>decision-date</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3109,7 +3093,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3119,7 +3103,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3133,31 +3117,23 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>related-application</t>
+          <t>original-application-type</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>decision-date</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Decision date</t>
-        </is>
-      </c>
+          <t>Original application type</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Type of original planning application</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3181,12 +3157,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>original-application-type</t>
+          <t>is-householder-development</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Original application type</t>
+          <t>Is householder development</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3197,12 +3173,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Type of original planning application</t>
+          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3212,21 +3188,29 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Eligibility</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>eligibility</t>
+        </is>
+      </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Written description of the proposed development including any additional relevant details.</t>
+          <t>Whether certain eligibility criteria has been met and the right people notified</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>is-householder-development</t>
+          <t>applicant-land-interest</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Is householder development</t>
+          <t>Applicant land interest</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3237,7 +3221,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
+          <t>Does the applicant have an interest in the land</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3247,21 +3231,13 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Eligibility</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>eligibility</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Whether certain eligibility criteria has been met and the right people notified</t>
@@ -3269,12 +3245,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>applicant-land-interest</t>
+          <t>ownership-notification</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Applicant land interest</t>
+          <t>Ownership notification</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3285,17 +3261,17 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant have an interest in the land</t>
+          <t>If not the sole owner, has notification been given under Article 10</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3309,28 +3285,44 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>ownership-notification</t>
+          <t>notified-persons</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Ownership notification</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
+          <t>Notified persons[]</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>If not the sole owner, has notification been given under Article 10</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3369,19 +3361,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3391,7 +3383,7 @@
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3425,19 +3417,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3481,19 +3473,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3537,19 +3529,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3559,7 +3551,7 @@
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3583,34 +3575,26 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>notice-date</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3620,64 +3604,56 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Non-material amendment details</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>nm-amendment-details</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Whether certain eligibility criteria has been met and the right people notified</t>
+          <t>Details of changes being requested to plans after permission has already been granted.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>notified-persons</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Notified persons[]</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>notice-date</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of the non-material amendments the applicant seeks to make</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Non-material amendment details</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>nm-amendment-details</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Details of changes being requested to plans after permission has already been granted.</t>
@@ -3685,12 +3661,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>is-substituting-document</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Substituting document</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3701,12 +3677,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Description of the non-material amendments the applicant seeks to make</t>
+          <t>True or False indicating whether the amendment involves substituting documents</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3725,28 +3701,36 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>is-substituting-document</t>
+          <t>replacement-documents</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Substituting document</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+          <t>Replacement documents[]</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>old-document</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>Old document</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the amendment involves substituting documents</t>
+          <t>Reference of the old document being replaced in the amendment</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3775,12 +3759,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>old-document</t>
+          <t>new-document</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Old document</t>
+          <t>New document</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3789,7 +3773,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old document being replaced in the amendment</t>
+          <t>Reference for the new document replacing the old document in the amendment</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3813,31 +3797,23 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>replacement-documents</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Replacement documents[]</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>new-document</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>New document</t>
-        </is>
-      </c>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new document replacing the old document in the amendment</t>
+          <t>Reason why applicant wants to make the amendment</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3852,21 +3828,29 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Details of changes being requested to plans after permission has already been granted.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3877,12 +3861,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Reason why applicant wants to make the amendment</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3892,16 +3876,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3909,12 +3885,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3925,17 +3901,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3949,12 +3925,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3965,7 +3941,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3989,12 +3965,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -4005,7 +3981,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4029,12 +4005,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4045,7 +4021,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4060,37 +4036,53 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4100,16 +4092,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4127,12 +4111,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4141,12 +4125,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4175,12 +4159,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4189,7 +4173,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4223,12 +4207,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4237,12 +4221,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4271,12 +4255,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4285,7 +4269,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4319,12 +4303,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4333,7 +4317,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4367,12 +4351,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4381,7 +4365,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4415,12 +4399,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4429,12 +4413,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4463,12 +4447,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4477,7 +4461,7 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4492,64 +4476,56 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4557,12 +4533,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4573,12 +4549,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4597,12 +4573,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4613,17 +4589,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4637,23 +4613,31 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4663,7 +4647,7 @@
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4671,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4701,7 +4685,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4735,12 +4719,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4749,7 +4733,7 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
@@ -4758,54 +4742,6 @@
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
-      <c r="C86" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr">
-        <is>
-          <t>other-contact</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H86" s="2" t="inlineStr"/>
-      <c r="I86" s="2" t="inlineStr"/>
-      <c r="J86" s="2" t="inlineStr"/>
-      <c r="K86" s="2" t="inlineStr"/>
-      <c r="L86" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="M86" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N86" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4813,34 +4749,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="B72:B80"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="A61:A65"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B71:B79"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="A53:A60"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,67 +1441,75 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1511,13 +1519,21 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1525,31 +1541,23 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1583,29 +1591,21 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1649,24 +1649,24 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1676,16 +1676,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1693,47 +1685,63 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1751,29 +1759,21 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1817,19 +1817,19 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1929,19 +1929,19 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2031,21 +2031,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2079,12 +2087,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>user-role</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr"/>
@@ -2093,12 +2101,12 @@
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -2108,56 +2116,64 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>user-role</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="H31" s="2" t="inlineStr"/>
       <c r="I31" s="2" t="inlineStr"/>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2165,31 +2181,23 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" s="2" t="inlineStr"/>
       <c r="I32" s="2" t="inlineStr"/>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2223,29 +2231,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2289,24 +2289,24 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>contact-priority</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2316,64 +2316,72 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>contact-priority</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2391,29 +2399,21 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2457,19 +2457,19 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2569,19 +2569,19 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2625,19 +2625,19 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2647,45 +2647,53 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>checklist</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>national-req-types</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2695,34 +2703,34 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>conflict-to-declare</t>
+          <t>national-req-types</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
@@ -2733,12 +2741,12 @@
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -2748,8 +2756,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>conflict-of-interest</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
@@ -2757,12 +2773,12 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>conflict-person-name</t>
+          <t>conflict-to-declare</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2773,17 +2789,17 @@
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2797,12 +2813,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>conflict-details</t>
+          <t>conflict-person-name</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
@@ -2813,7 +2829,7 @@
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2828,29 +2844,21 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>conflict-details</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
@@ -2861,7 +2869,7 @@
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2871,13 +2879,21 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>declaration</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -2885,12 +2901,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2901,12 +2917,12 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
@@ -2925,12 +2941,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2941,12 +2957,12 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N47" s="2" t="inlineStr">
@@ -2956,48 +2972,32 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Description of your proposal</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>desc-your-proposal</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Written description of the proposed development including any additional relevant details.</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>related-application</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
-        </is>
-      </c>
-      <c r="F48" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Declaration date</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3012,8 +3012,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Description of your proposal</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>desc-your-proposal</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Written description of the proposed development including any additional relevant details.</t>
@@ -3031,12 +3039,12 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3045,7 +3053,7 @@
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="M49" s="2" t="inlineStr">
@@ -3079,12 +3087,12 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>decision-date</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3093,7 +3101,7 @@
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="M50" s="2" t="inlineStr">
@@ -3103,7 +3111,7 @@
       </c>
       <c r="N50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3117,23 +3125,31 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>original-application-type</t>
+          <t>related-application</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Original application type</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+          <t>Related application</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>decision-date</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>Decision date</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Type of original planning application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M51" s="2" t="inlineStr">
@@ -3157,12 +3173,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>is-householder-development</t>
+          <t>original-application-type</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Is householder development</t>
+          <t>Original application type</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3173,12 +3189,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
+          <t>Type of original planning application</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3188,29 +3204,21 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Eligibility</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>eligibility</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Whether certain eligibility criteria has been met and the right people notified</t>
+          <t>Written description of the proposed development including any additional relevant details.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>applicant-land-interest</t>
+          <t>is-householder-development</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Applicant land interest</t>
+          <t>Is householder development</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3221,7 +3229,7 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant have an interest in the land</t>
+          <t>Is the development to an existing dwelling-house or development within its curtilage (true/false)</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
@@ -3231,13 +3239,21 @@
       </c>
       <c r="N53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Eligibility</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>eligibility</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Whether certain eligibility criteria has been met and the right people notified</t>
@@ -3245,12 +3261,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>ownership-notification</t>
+          <t>applicant-land-interest</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Ownership notification</t>
+          <t>Applicant land interest</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3261,17 +3277,17 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>If not the sole owner, has notification been given under Article 10</t>
+          <t>Does the applicant have an interest in the land</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3285,44 +3301,28 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>notified-persons</t>
+          <t>ownership-notification</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Notified persons[]</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Ownership notification</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>If not the sole owner, has notification been given under Article 10</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3361,19 +3361,19 @@
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>title</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="N56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3417,19 +3417,19 @@
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3473,19 +3473,19 @@
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3529,19 +3529,19 @@
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="N59" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3575,26 +3575,34 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>notice-date</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Notice date</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
@@ -3604,56 +3612,64 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Non-material amendment details</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>nm-amendment-details</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Details of changes being requested to plans after permission has already been granted.</t>
+          <t>Whether certain eligibility criteria has been met and the right people notified</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>notified-persons</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+          <t>Notified persons[]</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>notice-date</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Notice date</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Description of the non-material amendments the applicant seeks to make</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Non-material amendment details</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>nm-amendment-details</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>Details of changes being requested to plans after permission has already been granted.</t>
@@ -3661,12 +3677,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>is-substituting-document</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Substituting document</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
@@ -3677,12 +3693,12 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>True or False indicating whether the amendment involves substituting documents</t>
+          <t>Description of the non-material amendments the applicant seeks to make</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
@@ -3701,36 +3717,28 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>replacement-documents</t>
+          <t>is-substituting-document</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Replacement documents[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>old-document</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Old document</t>
-        </is>
-      </c>
+          <t>Substituting document</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old document being replaced in the amendment</t>
+          <t>True or False indicating whether the amendment involves substituting documents</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3759,12 +3767,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>new-document</t>
+          <t>old-document</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>New document</t>
+          <t>Old document</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3773,7 +3781,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new document replacing the old document in the amendment</t>
+          <t>Reference of the old document being replaced in the amendment</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3797,23 +3805,31 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>reason</t>
+          <t>replacement-documents</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
+          <t>Replacement documents[]</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>new-document</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>New document</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Reason why applicant wants to make the amendment</t>
+          <t>Reference for the new document replacing the old document in the amendment</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
@@ -3828,29 +3844,21 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>Details of changes being requested to plans after permission has already been granted.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>reason</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3861,12 +3869,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Reason why applicant wants to make the amendment</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3876,8 +3884,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -3885,12 +3901,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3901,17 +3917,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3925,12 +3941,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3941,7 +3957,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3965,12 +3981,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3981,7 +3997,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -4005,12 +4021,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -4021,7 +4037,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4036,53 +4052,37 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Advice summary</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
@@ -4092,8 +4092,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -4111,12 +4119,12 @@
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr"/>
@@ -4125,12 +4133,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4159,12 +4167,12 @@
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr"/>
@@ -4173,7 +4181,7 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
@@ -4207,12 +4215,12 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr"/>
@@ -4221,12 +4229,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4255,12 +4263,12 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr"/>
@@ -4269,7 +4277,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4303,12 +4311,12 @@
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr"/>
@@ -4317,7 +4325,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4351,12 +4359,12 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr"/>
@@ -4365,7 +4373,7 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
@@ -4399,12 +4407,12 @@
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr"/>
@@ -4413,12 +4421,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4447,12 +4455,12 @@
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr"/>
@@ -4461,7 +4469,7 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
@@ -4476,56 +4484,64 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -4533,12 +4549,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4549,12 +4565,12 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
@@ -4573,12 +4589,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4589,17 +4605,17 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4613,31 +4629,23 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4647,7 +4655,7 @@
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4671,12 +4679,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4685,7 +4693,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4719,12 +4727,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4733,15 +4741,63 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="M85" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N85" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>other-contact</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
+      <c r="L86" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="M85" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N85" s="2" t="inlineStr">
+      <c r="M86" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N86" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -4749,34 +4805,34 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A71:A79"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="A61:A65"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B71:B79"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="A53:A60"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A72:A80"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="B72:B80"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B54:B61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
+++ b/generated/spreadsheet/verbose/non-material-amendment-s96a-non-material-amendment-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
